--- a/examples/sbtab-sbml/teusink_data.xlsx
+++ b/examples/sbtab-sbml/teusink_data.xlsx
@@ -6422,7 +6422,7 @@
     <t>'!rxnconReactionList'!A1</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='TableOfContents' Description='Table of contents' Date='2019-09-23 11:04:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='TableOfContents' Description='Table of contents' Date='2019-09-23 12:47:06' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -6512,7 +6512,7 @@
     <t>rxnconReactionList</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compartment' ModelName='Compartment' Date='2019-09-23 11:04:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Compartment' ModelName='Compartment' Date='2019-09-23 12:47:06' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6572,7 +6572,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compound' ModelName='Compound' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Compound' ModelName='Compound' Date='2019-09-23 12:47:06' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6635,7 +6635,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Definition' ModelName='Definition' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Definition' ModelName='Definition' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6650,7 +6650,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Enzyme' ModelName='Enzyme' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Enzyme' ModelName='Enzyme' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6671,7 +6671,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='FbcObjective' ModelName='FbcObjective' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='FbcObjective' ModelName='FbcObjective' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6686,7 +6686,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Gene' ModelName='Gene' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Gene' ModelName='Gene' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6716,7 +6716,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Layout' ModelName='Layout' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Layout' ModelName='Layout' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6752,7 +6752,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Measurement' ModelName='Measurement' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Measurement' ModelName='Measurement' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6764,7 +6764,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='PbConfig' ModelName='PbConfig' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='PbConfig' ModelName='PbConfig' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6773,16 +6773,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Position' ModelName='Position' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Position' ModelName='Position' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Protein' ModelName='Protein' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Protein' ModelName='Protein' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Quantity' ModelName='Quantity' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8' Level='1.0' Version='0.1'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Quantity' ModelName='Quantity' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8' Level='1.0' Version='0.1'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7301,7 +7301,7 @@
     <t>C05345</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityInfo' ModelName='QuantityInfo' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='QuantityInfo' ModelName='QuantityInfo' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7319,7 +7319,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityMatrix' ModelName='QuantityMatrix' Date='2019-09-23 11:04:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='QuantityMatrix' ModelName='QuantityMatrix' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7358,7 +7358,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Reaction' ModelName='Reaction' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Reaction' ModelName='Reaction' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7430,7 +7430,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='ReactionStoichiometry' ModelName='ReactionStoichiometry' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='ReactionStoichiometry' ModelName='ReactionStoichiometry' Date='2019-09-23 12:47:07' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7442,7 +7442,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Regulator' ModelName='Regulator' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Regulator' ModelName='Regulator' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7454,7 +7454,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relation' ModelName='Relation' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Relation' ModelName='Relation' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7469,13 +7469,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relationship' ModelName='Relationship' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Relationship' ModelName='Relationship' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrix' ModelName='SparseMatrix' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrix' ModelName='SparseMatrix' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7484,13 +7484,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixColumn' ModelName='SparseMatrixColumn' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixColumn' ModelName='SparseMatrixColumn' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixOrdered' ModelName='SparseMatrixOrdered' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixOrdered' ModelName='SparseMatrixOrdered' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7499,19 +7499,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixRow' ModelName='SparseMatrixRow' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixRow' ModelName='SparseMatrixRow' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='StoichiometricMatrix' ModelName='StoichiometricMatrix' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='StoichiometricMatrix' ModelName='StoichiometricMatrix' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconContingencyList' ModelName='rxnconContingencyList' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='rxnconContingencyList' ModelName='rxnconContingencyList' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7532,7 +7532,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconReactionList' ModelName='rxnconReactionList' Date='2019-09-23 11:04:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='rxnconReactionList' ModelName='rxnconReactionList' Date='2019-09-23 12:47:08' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <f>COUNTA('!Compartment'!A3:A1048576)</f>
+        <f t="array" ref="C3">SUM((COUNTBLANK(OFFSET('!Compartment'!A3, ROW(1:1048574)-1, 0, 1, 20))&lt;&gt;20)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <f>COUNTA('!Compound'!A3:A1048576)</f>
+        <f t="array" ref="C4">SUM((COUNTBLANK(OFFSET('!Compound'!A3, ROW(1:1048574)-1, 0, 1, 35))&lt;&gt;35)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <f>COUNTA('!Definition'!A3:A1048576)</f>
+        <f t="array" ref="C5">SUM((COUNTBLANK(OFFSET('!Definition'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
-        <f>COUNTA('!Enzyme'!A3:A1048576)</f>
+        <f t="array" ref="C6">SUM((COUNTBLANK(OFFSET('!Enzyme'!A3, ROW(1:1048574)-1, 0, 1, 19))&lt;&gt;19)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <f>COUNTA('!FbcObjective'!A3:A1048576)</f>
+        <f t="array" ref="C7">SUM((COUNTBLANK(OFFSET('!FbcObjective'!A3, ROW(1:1048574)-1, 0, 1, 6))&lt;&gt;6)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
-        <f>COUNTA('!Gene'!A3:A1048576)</f>
+        <f t="array" ref="C8">SUM((COUNTBLANK(OFFSET('!Gene'!A3, ROW(1:1048574)-1, 0, 1, 22))&lt;&gt;22)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <f>COUNTA('!Layout'!A3:A1048576)</f>
+        <f t="array" ref="C9">SUM((COUNTBLANK(OFFSET('!Layout'!A3, ROW(1:1048574)-1, 0, 1, 13))&lt;&gt;13)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <f>COUNTA('!Measurement'!A3:A1048576)</f>
+        <f t="array" ref="C10">SUM((COUNTBLANK(OFFSET('!Measurement'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <f>COUNTA('!PbConfig'!A3:A1048576)</f>
+        <f t="array" ref="C11">SUM((COUNTBLANK(OFFSET('!PbConfig'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <f>COUNTA('!Position'!A3:A1048576)</f>
+        <f t="array" ref="C12">SUM((COUNTBLANK(OFFSET('!Position'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <f>COUNTA('!Protein'!A3:A1048576)</f>
+        <f t="array" ref="C13">SUM((COUNTBLANK(OFFSET('!Protein'!A3, ROW(1:1048574)-1, 0, 1, 15))&lt;&gt;15)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <f>COUNTA('!Quantity'!A3:A1048576)</f>
+        <f t="array" ref="C14">SUM((COUNTBLANK(OFFSET('!Quantity'!A3, ROW(1:1048574)-1, 0, 1, 75))&lt;&gt;75)*1)</f>
         <v>474</v>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <f>COUNTA('!QuantityInfo'!A3:A1048576)</f>
+        <f t="array" ref="C15">SUM((COUNTBLANK(OFFSET('!QuantityInfo'!A3, ROW(1:1048574)-1, 0, 1, 19))&lt;&gt;19)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
-        <f>COUNTA('!QuantityMatrix'!A3:A1048576)</f>
+        <f t="array" ref="C16">SUM((COUNTBLANK(OFFSET('!QuantityMatrix'!A3, ROW(1:1048574)-1, 0, 1, 49))&lt;&gt;49)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <f>COUNTA('!Reaction'!A3:A1048576)</f>
+        <f t="array" ref="C17">SUM((COUNTBLANK(OFFSET('!Reaction'!A3, ROW(1:1048574)-1, 0, 1, 47))&lt;&gt;47)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <f>COUNTA('!ReactionStoichiometry'!A3:A1048576)</f>
+        <f t="array" ref="C18">SUM((COUNTBLANK(OFFSET('!ReactionStoichiometry'!A3, ROW(1:1048574)-1, 0, 1, 6))&lt;&gt;6)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <f>COUNTA('!Regulator'!A3:A1048576)</f>
+        <f t="array" ref="C19">SUM((COUNTBLANK(OFFSET('!Regulator'!A3, ROW(1:1048574)-1, 0, 1, 17))&lt;&gt;17)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <f>COUNTA('!Relation'!A3:A1048576)</f>
+        <f t="array" ref="C20">SUM((COUNTBLANK(OFFSET('!Relation'!A3, ROW(1:1048574)-1, 0, 1, 10))&lt;&gt;10)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <f>COUNTA('!Relationship'!A3:A1048576)</f>
+        <f t="array" ref="C21">SUM((COUNTBLANK(OFFSET('!Relationship'!A3, ROW(1:1048574)-1, 0, 1, 7))&lt;&gt;7)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
-        <f>COUNTA('!SparseMatrix'!A3:A1048576)</f>
+        <f t="array" ref="C22">SUM((COUNTBLANK(OFFSET('!SparseMatrix'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <f>COUNTA('!SparseMatrixColumn'!A3:A1048576)</f>
+        <f t="array" ref="C23">SUM((COUNTBLANK(OFFSET('!SparseMatrixColumn'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <f>COUNTA('!SparseMatrixOrdered'!A3:A1048576)</f>
+        <f t="array" ref="C24">SUM((COUNTBLANK(OFFSET('!SparseMatrixOrdered'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <f>COUNTA('!SparseMatrixRow'!A3:A1048576)</f>
+        <f t="array" ref="C25">SUM((COUNTBLANK(OFFSET('!SparseMatrixRow'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <f>COUNTA('!StoichiometricMatrix'!A3:A1048576)</f>
+        <f t="array" ref="C26">SUM((COUNTBLANK(OFFSET('!StoichiometricMatrix'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <f>COUNTA('!rxnconContingencyList'!A3:A1048576)</f>
+        <f t="array" ref="C27">SUM((COUNTBLANK(OFFSET('!rxnconContingencyList'!A3, ROW(1:1048574)-1, 0, 1, 8))&lt;&gt;8)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <f>COUNTA('!rxnconReactionList'!A3:A1048576)</f>
+        <f t="array" ref="C28">SUM((COUNTBLANK(OFFSET('!rxnconReactionList'!A3, ROW(1:1048574)-1, 0, 1, 12))&lt;&gt;12)*1)</f>
         <v>0</v>
       </c>
     </row>

--- a/examples/sbtab-sbml/teusink_data.xlsx
+++ b/examples/sbtab-sbml/teusink_data.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="351">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:10:51'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:15'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:10:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:10:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:10:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:10:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:10:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:10:52' ObjTablesVersion='0.0.8' Level='1.0' Version='0.1'</t>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8' Level='1.0' Version='0.1'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7137,7 +7137,7 @@
     <t>C05345</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7155,7 +7155,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7194,7 +7194,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7266,7 +7266,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7278,7 +7278,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7290,7 +7290,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7305,13 +7305,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:10:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7320,13 +7320,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7335,19 +7335,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7368,7 +7368,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:10:54' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7890,7 +7890,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T3"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -7996,7 +7996,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8098,7 +8098,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -55480,7 +55480,7 @@
       <c r="BW476" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW476"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A476">
@@ -55836,7 +55836,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -56126,7 +56126,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -56510,7 +56510,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU2"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -56709,7 +56709,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -56826,7 +56826,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -56950,7 +56950,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57040,7 +57040,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57233,7 +57233,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI2"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57388,7 +57388,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57437,7 +57437,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57486,7 +57486,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -57537,7 +57537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57594,7 +57594,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57672,7 +57672,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -57776,7 +57776,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -57864,7 +57864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -57986,7 +57986,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -58100,7 +58100,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -58237,7 +58237,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -58388,7 +58388,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -58482,7 +58482,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -58536,7 +58536,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/teusink_data.xlsx
+++ b/examples/sbtab-sbml/teusink_data.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="351">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:15'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:01:41'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8' Level='1.0' Version='0.1'</t>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:01:41' objTablesVersion='0.0.8' level='1.0' version='0.1'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7137,7 +7137,7 @@
     <t>C05345</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7155,7 +7155,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7194,7 +7194,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7266,7 +7266,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7278,7 +7278,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7290,7 +7290,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7305,13 +7305,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7320,13 +7320,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7335,19 +7335,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7368,7 +7368,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:15' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/teusink_data.xlsx
+++ b/examples/sbtab-sbml/teusink_data.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="351">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:01:41'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:03'</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:03' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:01:41' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:01:41' objTablesVersion='0.0.8' level='1.0' version='0.1'</t>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' level='1.0' tableFormat='row' version='0.1'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7137,7 +7137,7 @@
     <t>C05345</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7155,7 +7155,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7194,7 +7194,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7266,7 +7266,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7278,7 +7278,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7290,7 +7290,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7305,13 +7305,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7320,13 +7320,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7335,19 +7335,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7368,7 +7368,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:01:42' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:04' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
